--- a/new_data/DJI/DJI_2019/DJI_2019_list.xlsx
+++ b/new_data/DJI/DJI_2019/DJI_2019_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\DJI\DJI_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30931F2-5410-4FF4-93F1-4B5E7C44D277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B081836-5827-4478-9A73-B21F64AC19AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Volume</t>
   </si>
@@ -121,14 +121,6 @@
   </si>
   <si>
     <t>GRNN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MA20_L2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MA20_L1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -595,23 +587,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="10"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="10"/>
+    <col min="8" max="8" width="14" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>23</v>
@@ -632,7 +625,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -663,7 +656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -681,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -699,7 +692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -720,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -733,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -754,7 +747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -772,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -790,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -803,7 +796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -821,7 +814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -839,7 +832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -857,7 +850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -875,7 +868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -893,7 +886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -906,7 +899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -919,7 +912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -932,7 +925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -945,7 +938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -958,7 +951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -971,7 +964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -994,7 +987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1018,22 +1011,6 @@
       </c>
       <c r="I24">
         <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/new_data/DJI/DJI_2019/DJI_2019_list.xlsx
+++ b/new_data/DJI/DJI_2019/DJI_2019_list.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\DJI\DJI_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B081836-5827-4478-9A73-B21F64AC19AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCD29D-7262-417D-A4F9-B50B3C20286A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="DJI_2019" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -589,22 +589,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="10"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="10"/>
     <col min="8" max="8" width="14" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>23</v>
@@ -625,7 +625,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -656,7 +656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -674,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -713,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -726,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -747,7 +747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -765,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -796,7 +796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -814,7 +814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -832,7 +832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -850,7 +850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -868,7 +868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -886,7 +886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -899,7 +899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -912,7 +912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -925,7 +925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -938,7 +938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -951,7 +951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -964,7 +964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -987,7 +987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>

--- a/new_data/DJI/DJI_2019/DJI_2019_list.xlsx
+++ b/new_data/DJI/DJI_2019/DJI_2019_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\DJI\DJI_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCD29D-7262-417D-A4F9-B50B3C20286A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C1633-68DE-4F0B-B5BF-0379A7A5AEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -971,7 +971,7 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="C23">
         <v>1</v>
       </c>
       <c r="F23" s="2">
@@ -994,10 +994,10 @@
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" s="2">
